--- a/ZG_nais_einheiten_unique_v2_mf_v2.xlsx
+++ b/ZG_nais_einheiten_unique_v2_mf_v2.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frehnerm\Documents\excel\Aufträge\Sensi CH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05989948-30AC-49D7-B08E-245035773505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C875B07-193B-4FEF-8885-85E5AAE3E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="156" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Read me" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$M$412</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$412</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="399">
   <si>
     <t>NUMMER</t>
   </si>
@@ -1133,18 +1133,6 @@
     <t>Bedingung Höhenstufe</t>
   </si>
   <si>
-    <t>NAIS1
-2025</t>
-  </si>
-  <si>
-    <t>NaiS2
-2025</t>
-  </si>
-  <si>
-    <t>tahs
-2025</t>
-  </si>
-  <si>
     <t>Bemerkungen</t>
   </si>
   <si>
@@ -1218,6 +1206,21 @@
   </si>
   <si>
     <t>Nummer nicht gleich Beschriftung korrigiert</t>
+  </si>
+  <si>
+    <t>nais1</t>
+  </si>
+  <si>
+    <t>nais2</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>om hm sa</t>
+  </si>
+  <si>
+    <t>sm um om</t>
   </si>
 </sst>
 </file>
@@ -1633,30 +1636,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M62" sqref="M62"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="2"/>
-    <col min="10" max="10" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="9.109375" style="2"/>
+    <col min="9" max="9" width="21" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="8"/>
+    <col min="12" max="12" width="12.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>367</v>
       </c>
@@ -1685,19 +1689,19 @@
         <v>368</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="M1" t="s">
         <v>369</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="M1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>7481</v>
       </c>
@@ -1720,10 +1724,10 @@
         <v>2</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>160</v>
       </c>
@@ -1740,10 +1744,10 @@
         <v>7</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6462</v>
       </c>
@@ -1763,10 +1767,10 @@
         <v>7</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4868</v>
       </c>
@@ -1786,10 +1790,10 @@
         <v>126</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7652</v>
       </c>
@@ -1812,10 +1816,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1958</v>
       </c>
@@ -1832,10 +1836,10 @@
         <v>126</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4983</v>
       </c>
@@ -1855,10 +1859,10 @@
         <v>243</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8819</v>
       </c>
@@ -1878,10 +1882,10 @@
         <v>243</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8966</v>
       </c>
@@ -1901,10 +1905,10 @@
         <v>243</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8007</v>
       </c>
@@ -1927,10 +1931,10 @@
         <v>288</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>208</v>
       </c>
@@ -1947,10 +1951,10 @@
         <v>243</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4548</v>
       </c>
@@ -1970,10 +1974,10 @@
         <v>14</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9644</v>
       </c>
@@ -1993,10 +1997,10 @@
         <v>14</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7482</v>
       </c>
@@ -2019,10 +2023,10 @@
         <v>361</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>147</v>
       </c>
@@ -2039,10 +2043,10 @@
         <v>14</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7165</v>
       </c>
@@ -2065,10 +2069,10 @@
         <v>192</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>6086</v>
       </c>
@@ -2088,10 +2092,10 @@
         <v>44</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2223</v>
       </c>
@@ -2108,10 +2112,10 @@
         <v>44</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4980</v>
       </c>
@@ -2131,10 +2135,10 @@
         <v>44</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>888</v>
       </c>
@@ -2151,10 +2155,10 @@
         <v>44</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>7126</v>
       </c>
@@ -2177,10 +2181,10 @@
         <v>62</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>496</v>
       </c>
@@ -2197,10 +2201,10 @@
         <v>48</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5223</v>
       </c>
@@ -2220,10 +2224,10 @@
         <v>48</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5239</v>
       </c>
@@ -2243,10 +2247,10 @@
         <v>48</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2361</v>
       </c>
@@ -2263,10 +2267,10 @@
         <v>48</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>7530</v>
       </c>
@@ -2289,10 +2293,10 @@
         <v>292</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6825</v>
       </c>
@@ -2315,10 +2319,10 @@
         <v>26</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>7966</v>
       </c>
@@ -2341,10 +2345,10 @@
         <v>28</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>209</v>
       </c>
@@ -2361,10 +2365,10 @@
         <v>50</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6749</v>
       </c>
@@ -2387,10 +2391,10 @@
         <v>20</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6901</v>
       </c>
@@ -2413,10 +2417,10 @@
         <v>168</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4863</v>
       </c>
@@ -2439,10 +2443,10 @@
         <v>263</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4854</v>
       </c>
@@ -2465,10 +2469,10 @@
         <v>26</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4638</v>
       </c>
@@ -2491,10 +2495,10 @@
         <v>33</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>4611</v>
       </c>
@@ -2514,10 +2518,10 @@
         <v>50</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>7486</v>
       </c>
@@ -2540,10 +2544,10 @@
         <v>26</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>6666</v>
       </c>
@@ -2566,10 +2570,10 @@
         <v>20</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6965</v>
       </c>
@@ -2592,10 +2596,10 @@
         <v>96</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>7942</v>
       </c>
@@ -2618,10 +2622,10 @@
         <v>26</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>9282</v>
       </c>
@@ -2641,10 +2645,10 @@
         <v>62</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>9563</v>
       </c>
@@ -2667,10 +2671,10 @@
         <v>17</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>8165</v>
       </c>
@@ -2693,10 +2697,10 @@
         <v>103</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>4532</v>
       </c>
@@ -2716,10 +2720,10 @@
         <v>62</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>6665</v>
       </c>
@@ -2742,10 +2746,10 @@
         <v>26</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>6740</v>
       </c>
@@ -2768,10 +2772,10 @@
         <v>19</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>9615</v>
       </c>
@@ -2791,10 +2795,10 @@
         <v>19</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>9612</v>
       </c>
@@ -2817,16 +2821,16 @@
         <v>19</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>9553</v>
       </c>
@@ -2846,10 +2850,10 @@
         <v>18</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>6894</v>
       </c>
@@ -2872,10 +2876,10 @@
         <v>19</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>6797</v>
       </c>
@@ -2898,10 +2902,10 @@
         <v>19</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6950</v>
       </c>
@@ -2924,10 +2928,10 @@
         <v>20</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7004</v>
       </c>
@@ -2950,16 +2954,16 @@
         <v>73</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -2976,10 +2980,10 @@
         <v>62</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9513</v>
       </c>
@@ -2999,10 +3003,10 @@
         <v>62</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>7901</v>
       </c>
@@ -3022,10 +3026,10 @@
         <v>62</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>9494</v>
       </c>
@@ -3048,16 +3052,16 @@
         <v>62</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>9506</v>
       </c>
@@ -3080,16 +3084,16 @@
         <v>18</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>4589</v>
       </c>
@@ -3105,14 +3109,14 @@
       <c r="F59" t="s">
         <v>62</v>
       </c>
-      <c r="K59" s="8">
+      <c r="J59" s="8">
         <v>19</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>6748</v>
       </c>
@@ -3128,14 +3132,14 @@
       <c r="F60" t="s">
         <v>62</v>
       </c>
-      <c r="K60" s="8">
+      <c r="J60" s="8">
         <v>19</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>7917</v>
       </c>
@@ -3151,14 +3155,14 @@
       <c r="F61" t="s">
         <v>62</v>
       </c>
-      <c r="K61" s="8">
+      <c r="J61" s="8">
         <v>19</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>6910</v>
       </c>
@@ -3174,14 +3178,14 @@
       <c r="F62" t="s">
         <v>62</v>
       </c>
-      <c r="K62" s="8">
+      <c r="J62" s="8">
         <v>19</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>6818</v>
       </c>
@@ -3197,14 +3201,14 @@
       <c r="F63" t="s">
         <v>62</v>
       </c>
-      <c r="K63" s="8">
+      <c r="J63" s="8">
         <v>19</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>6993</v>
       </c>
@@ -3220,14 +3224,14 @@
       <c r="F64" t="s">
         <v>62</v>
       </c>
-      <c r="K64" s="8">
+      <c r="J64" s="8">
         <v>19</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>6786</v>
       </c>
@@ -3243,14 +3247,14 @@
       <c r="F65" t="s">
         <v>62</v>
       </c>
-      <c r="K65" s="8">
+      <c r="J65" s="8">
         <v>19</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>6816</v>
       </c>
@@ -3266,14 +3270,14 @@
       <c r="F66" t="s">
         <v>62</v>
       </c>
-      <c r="K66" s="8">
+      <c r="J66" s="8">
         <v>19</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>6856</v>
       </c>
@@ -3289,14 +3293,14 @@
       <c r="F67" t="s">
         <v>62</v>
       </c>
-      <c r="K67" s="8">
+      <c r="J67" s="8">
         <v>19</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>6839</v>
       </c>
@@ -3312,14 +3316,14 @@
       <c r="F68" t="s">
         <v>62</v>
       </c>
-      <c r="K68" s="8">
+      <c r="J68" s="8">
         <v>19</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>6969</v>
       </c>
@@ -3335,14 +3339,14 @@
       <c r="F69" t="s">
         <v>62</v>
       </c>
-      <c r="K69" s="8">
+      <c r="J69" s="8">
         <v>19</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>4534</v>
       </c>
@@ -3358,14 +3362,14 @@
       <c r="F70" t="s">
         <v>62</v>
       </c>
-      <c r="K70" s="8">
+      <c r="J70" s="8">
         <v>19</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>4598</v>
       </c>
@@ -3381,14 +3385,14 @@
       <c r="F71" t="s">
         <v>62</v>
       </c>
-      <c r="K71" s="8">
+      <c r="J71" s="8">
         <v>19</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>7003</v>
       </c>
@@ -3404,23 +3408,20 @@
       <c r="F72" t="s">
         <v>62</v>
       </c>
-      <c r="J72" s="10">
-        <v>19</v>
-      </c>
-      <c r="K72" s="10" t="s">
+      <c r="J72" s="10" t="s">
         <v>94</v>
       </c>
       <c r="L72" s="11" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>10</v>
       </c>
@@ -3433,14 +3434,14 @@
       <c r="F73" t="s">
         <v>62</v>
       </c>
-      <c r="K73" s="8">
+      <c r="J73" s="8">
         <v>19</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>9324</v>
       </c>
@@ -3456,14 +3457,14 @@
       <c r="F74" t="s">
         <v>114</v>
       </c>
-      <c r="K74" s="8" t="s">
+      <c r="J74" s="8" t="s">
         <v>114</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>9508</v>
       </c>
@@ -3480,22 +3481,19 @@
         <v>114</v>
       </c>
       <c r="J75" s="10">
-        <v>19</v>
-      </c>
-      <c r="K75" s="10">
         <v>18</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>9495</v>
       </c>
@@ -3512,20 +3510,19 @@
         <v>114</v>
       </c>
       <c r="J76" s="10">
-        <v>19</v>
-      </c>
-      <c r="K76" s="10"/>
+        <v>18</v>
+      </c>
       <c r="L76" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>6932</v>
       </c>
@@ -3541,14 +3538,14 @@
       <c r="F77" t="s">
         <v>114</v>
       </c>
-      <c r="K77" s="8" t="s">
+      <c r="J77" s="8" t="s">
         <v>114</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>4530</v>
       </c>
@@ -3564,14 +3561,14 @@
       <c r="F78" t="s">
         <v>114</v>
       </c>
-      <c r="K78" s="8" t="s">
+      <c r="J78" s="8" t="s">
         <v>114</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>6811</v>
       </c>
@@ -3587,14 +3584,14 @@
       <c r="F79" t="s">
         <v>114</v>
       </c>
-      <c r="K79" s="8" t="s">
+      <c r="J79" s="8" t="s">
         <v>114</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>6812</v>
       </c>
@@ -3610,14 +3607,14 @@
       <c r="F80" t="s">
         <v>114</v>
       </c>
-      <c r="K80" s="8" t="s">
+      <c r="J80" s="8" t="s">
         <v>114</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>6880</v>
       </c>
@@ -3633,14 +3630,14 @@
       <c r="F81" t="s">
         <v>114</v>
       </c>
-      <c r="K81" s="8" t="s">
+      <c r="J81" s="8" t="s">
         <v>114</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>8</v>
       </c>
@@ -3653,14 +3650,14 @@
       <c r="F82" t="s">
         <v>114</v>
       </c>
-      <c r="K82" s="8" t="s">
+      <c r="J82" s="8" t="s">
         <v>114</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>4533</v>
       </c>
@@ -3676,14 +3673,14 @@
       <c r="F83" t="s">
         <v>128</v>
       </c>
-      <c r="K83" s="8" t="s">
+      <c r="J83" s="8" t="s">
         <v>128</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>4592</v>
       </c>
@@ -3699,14 +3696,14 @@
       <c r="F84" t="s">
         <v>128</v>
       </c>
-      <c r="K84" s="8" t="s">
+      <c r="J84" s="8" t="s">
         <v>128</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1575</v>
       </c>
@@ -3719,14 +3716,14 @@
       <c r="F85" t="s">
         <v>128</v>
       </c>
-      <c r="K85" s="8" t="s">
+      <c r="J85" s="8" t="s">
         <v>128</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>5888</v>
       </c>
@@ -3742,14 +3739,14 @@
       <c r="F86" t="s">
         <v>130</v>
       </c>
-      <c r="K86" s="8" t="s">
+      <c r="J86" s="8" t="s">
         <v>130</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>4420</v>
       </c>
@@ -3762,14 +3759,14 @@
       <c r="F87" t="s">
         <v>130</v>
       </c>
-      <c r="K87" s="8" t="s">
+      <c r="J87" s="8" t="s">
         <v>130</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>5022</v>
       </c>
@@ -3785,14 +3782,14 @@
       <c r="F88" t="s">
         <v>132</v>
       </c>
-      <c r="K88" s="8" t="s">
+      <c r="J88" s="8" t="s">
         <v>132</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>7589</v>
       </c>
@@ -3808,14 +3805,14 @@
       <c r="F89" t="s">
         <v>132</v>
       </c>
-      <c r="K89" s="8" t="s">
+      <c r="J89" s="8" t="s">
         <v>132</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>304</v>
       </c>
@@ -3828,14 +3825,14 @@
       <c r="F90" t="s">
         <v>132</v>
       </c>
-      <c r="K90" s="8" t="s">
+      <c r="J90" s="8" t="s">
         <v>132</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>8955</v>
       </c>
@@ -3851,14 +3848,14 @@
       <c r="F91" t="s">
         <v>138</v>
       </c>
-      <c r="K91" s="8" t="s">
+      <c r="J91" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>8241</v>
       </c>
@@ -3874,14 +3871,14 @@
       <c r="F92" t="s">
         <v>138</v>
       </c>
-      <c r="K92" s="8" t="s">
+      <c r="J92" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>9549</v>
       </c>
@@ -3897,23 +3894,20 @@
       <c r="F93" t="s">
         <v>138</v>
       </c>
-      <c r="J93" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="K93" s="10">
+      <c r="J93" s="10">
         <v>18</v>
       </c>
       <c r="L93" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
       <c r="P93" s="9"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>4732</v>
       </c>
@@ -3929,14 +3923,14 @@
       <c r="F94" t="s">
         <v>138</v>
       </c>
-      <c r="K94" s="8" t="s">
+      <c r="J94" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>7265</v>
       </c>
@@ -3952,14 +3946,14 @@
       <c r="F95" t="s">
         <v>138</v>
       </c>
-      <c r="K95" s="8" t="s">
+      <c r="J95" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>7511</v>
       </c>
@@ -3975,14 +3969,14 @@
       <c r="F96" t="s">
         <v>138</v>
       </c>
-      <c r="K96" s="8" t="s">
+      <c r="J96" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>7252</v>
       </c>
@@ -3998,14 +3992,14 @@
       <c r="F97" t="s">
         <v>138</v>
       </c>
-      <c r="K97" s="8" t="s">
+      <c r="J97" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>7913</v>
       </c>
@@ -4021,14 +4015,14 @@
       <c r="F98" t="s">
         <v>138</v>
       </c>
-      <c r="K98" s="8" t="s">
+      <c r="J98" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>6841</v>
       </c>
@@ -4044,14 +4038,14 @@
       <c r="F99" t="s">
         <v>138</v>
       </c>
-      <c r="K99" s="8" t="s">
+      <c r="J99" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>7793</v>
       </c>
@@ -4067,14 +4061,14 @@
       <c r="F100" t="s">
         <v>138</v>
       </c>
-      <c r="K100" s="8" t="s">
+      <c r="J100" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>7467</v>
       </c>
@@ -4090,14 +4084,14 @@
       <c r="F101" t="s">
         <v>138</v>
       </c>
-      <c r="K101" s="8" t="s">
+      <c r="J101" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>7466</v>
       </c>
@@ -4113,14 +4107,14 @@
       <c r="F102" t="s">
         <v>138</v>
       </c>
-      <c r="K102" s="8" t="s">
+      <c r="J102" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>8341</v>
       </c>
@@ -4136,14 +4130,14 @@
       <c r="F103" t="s">
         <v>138</v>
       </c>
-      <c r="K103" s="8" t="s">
+      <c r="J103" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>7465</v>
       </c>
@@ -4159,14 +4153,14 @@
       <c r="F104" t="s">
         <v>138</v>
       </c>
-      <c r="K104" s="8" t="s">
+      <c r="J104" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>8062</v>
       </c>
@@ -4182,14 +4176,14 @@
       <c r="F105" t="s">
         <v>138</v>
       </c>
-      <c r="K105" s="8" t="s">
+      <c r="J105" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>7800</v>
       </c>
@@ -4205,14 +4199,14 @@
       <c r="F106" t="s">
         <v>138</v>
       </c>
-      <c r="K106" s="8" t="s">
+      <c r="J106" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>7719</v>
       </c>
@@ -4228,14 +4222,14 @@
       <c r="F107" t="s">
         <v>138</v>
       </c>
-      <c r="K107" s="8" t="s">
+      <c r="J107" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>72</v>
       </c>
@@ -4248,14 +4242,14 @@
       <c r="F108" t="s">
         <v>138</v>
       </c>
-      <c r="K108" s="8" t="s">
+      <c r="J108" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>4581</v>
       </c>
@@ -4271,14 +4265,14 @@
       <c r="F109" t="s">
         <v>138</v>
       </c>
-      <c r="K109" s="8" t="s">
+      <c r="J109" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>7859</v>
       </c>
@@ -4294,14 +4288,14 @@
       <c r="F110" t="s">
         <v>138</v>
       </c>
-      <c r="K110" s="8" t="s">
+      <c r="J110" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>7799</v>
       </c>
@@ -4317,14 +4311,14 @@
       <c r="F111" t="s">
         <v>138</v>
       </c>
-      <c r="K111" s="8" t="s">
+      <c r="J111" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>7852</v>
       </c>
@@ -4340,14 +4334,14 @@
       <c r="F112" t="s">
         <v>138</v>
       </c>
-      <c r="K112" s="8" t="s">
+      <c r="J112" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>7798</v>
       </c>
@@ -4363,14 +4357,14 @@
       <c r="F113" t="s">
         <v>138</v>
       </c>
-      <c r="K113" s="8" t="s">
+      <c r="J113" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>7394</v>
       </c>
@@ -4386,14 +4380,14 @@
       <c r="F114" t="s">
         <v>138</v>
       </c>
-      <c r="K114" s="8" t="s">
+      <c r="J114" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>7472</v>
       </c>
@@ -4409,14 +4403,14 @@
       <c r="F115" t="s">
         <v>138</v>
       </c>
-      <c r="K115" s="8" t="s">
+      <c r="J115" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>8124</v>
       </c>
@@ -4432,14 +4426,14 @@
       <c r="F116" t="s">
         <v>138</v>
       </c>
-      <c r="K116" s="8" t="s">
+      <c r="J116" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>7532</v>
       </c>
@@ -4455,14 +4449,14 @@
       <c r="F117" t="s">
         <v>138</v>
       </c>
-      <c r="K117" s="8" t="s">
+      <c r="J117" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>7395</v>
       </c>
@@ -4478,14 +4472,14 @@
       <c r="F118" t="s">
         <v>138</v>
       </c>
-      <c r="K118" s="8" t="s">
+      <c r="J118" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>7703</v>
       </c>
@@ -4501,14 +4495,14 @@
       <c r="F119" t="s">
         <v>138</v>
       </c>
-      <c r="K119" s="8" t="s">
+      <c r="J119" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>8116</v>
       </c>
@@ -4524,14 +4518,14 @@
       <c r="F120" t="s">
         <v>138</v>
       </c>
-      <c r="K120" s="8" t="s">
+      <c r="J120" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>58</v>
       </c>
@@ -4544,14 +4538,14 @@
       <c r="F121" t="s">
         <v>138</v>
       </c>
-      <c r="K121" s="8" t="s">
+      <c r="J121" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>4643</v>
       </c>
@@ -4567,14 +4561,14 @@
       <c r="F122" t="s">
         <v>138</v>
       </c>
-      <c r="K122" s="8" t="s">
+      <c r="J122" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>65</v>
       </c>
@@ -4587,14 +4581,14 @@
       <c r="F123" t="s">
         <v>138</v>
       </c>
-      <c r="K123" s="8" t="s">
+      <c r="J123" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>4577</v>
       </c>
@@ -4610,14 +4604,14 @@
       <c r="F124" t="s">
         <v>138</v>
       </c>
-      <c r="K124" s="8" t="s">
+      <c r="J124" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>7103</v>
       </c>
@@ -4633,14 +4627,14 @@
       <c r="F125" t="s">
         <v>138</v>
       </c>
-      <c r="K125" s="8" t="s">
+      <c r="J125" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>7684</v>
       </c>
@@ -4656,14 +4650,14 @@
       <c r="F126" t="s">
         <v>138</v>
       </c>
-      <c r="K126" s="8" t="s">
+      <c r="J126" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>297</v>
       </c>
@@ -4676,14 +4670,14 @@
       <c r="F127" t="s">
         <v>138</v>
       </c>
-      <c r="K127" s="8" t="s">
+      <c r="J127" s="8" t="s">
         <v>138</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>4528</v>
       </c>
@@ -4699,14 +4693,14 @@
       <c r="F128" t="s">
         <v>175</v>
       </c>
-      <c r="K128" s="8" t="s">
+      <c r="J128" s="8" t="s">
         <v>174</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>7342</v>
       </c>
@@ -4722,14 +4716,14 @@
       <c r="F129" t="s">
         <v>175</v>
       </c>
-      <c r="K129" s="8" t="s">
+      <c r="J129" s="8" t="s">
         <v>174</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>7505</v>
       </c>
@@ -4745,14 +4739,14 @@
       <c r="F130" t="s">
         <v>175</v>
       </c>
-      <c r="K130" s="8" t="s">
+      <c r="J130" s="8" t="s">
         <v>174</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>187</v>
       </c>
@@ -4765,14 +4759,14 @@
       <c r="F131" t="s">
         <v>175</v>
       </c>
-      <c r="K131" s="8" t="s">
+      <c r="J131" s="8" t="s">
         <v>174</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>4574</v>
       </c>
@@ -4788,14 +4782,14 @@
       <c r="F132" t="s">
         <v>175</v>
       </c>
-      <c r="K132" s="8" t="s">
+      <c r="J132" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>6614</v>
       </c>
@@ -4811,14 +4805,14 @@
       <c r="F133" t="s">
         <v>175</v>
       </c>
-      <c r="K133" s="8" t="s">
+      <c r="J133" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>399</v>
       </c>
@@ -4831,14 +4825,14 @@
       <c r="F134" t="s">
         <v>175</v>
       </c>
-      <c r="K134" s="8" t="s">
+      <c r="J134" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>4579</v>
       </c>
@@ -4860,14 +4854,14 @@
       <c r="H135" t="s">
         <v>186</v>
       </c>
-      <c r="K135" s="8" t="s">
+      <c r="J135" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>7655</v>
       </c>
@@ -4889,14 +4883,14 @@
       <c r="H136" t="s">
         <v>186</v>
       </c>
-      <c r="K136" s="8" t="s">
+      <c r="J136" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>448</v>
       </c>
@@ -4915,14 +4909,14 @@
       <c r="H137" t="s">
         <v>186</v>
       </c>
-      <c r="K137" s="8" t="s">
+      <c r="J137" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>4679</v>
       </c>
@@ -4938,14 +4932,14 @@
       <c r="F138" t="s">
         <v>187</v>
       </c>
-      <c r="K138" s="8" t="s">
+      <c r="J138" s="8" t="s">
         <v>187</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>7476</v>
       </c>
@@ -4961,14 +4955,14 @@
       <c r="F139" t="s">
         <v>187</v>
       </c>
-      <c r="K139" s="8" t="s">
+      <c r="J139" s="8" t="s">
         <v>187</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>8131</v>
       </c>
@@ -4984,14 +4978,14 @@
       <c r="F140" t="s">
         <v>187</v>
       </c>
-      <c r="K140" s="8" t="s">
+      <c r="J140" s="8" t="s">
         <v>187</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>4527</v>
       </c>
@@ -5007,14 +5001,14 @@
       <c r="F141" t="s">
         <v>199</v>
       </c>
-      <c r="K141" s="8" t="s">
+      <c r="J141" s="8" t="s">
         <v>199</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>8319</v>
       </c>
@@ -5030,14 +5024,14 @@
       <c r="F142" t="s">
         <v>199</v>
       </c>
-      <c r="K142" s="8" t="s">
+      <c r="J142" s="8" t="s">
         <v>199</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>7471</v>
       </c>
@@ -5053,14 +5047,14 @@
       <c r="F143" t="s">
         <v>199</v>
       </c>
-      <c r="K143" s="8" t="s">
+      <c r="J143" s="8" t="s">
         <v>199</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>7801</v>
       </c>
@@ -5076,14 +5070,14 @@
       <c r="F144" t="s">
         <v>199</v>
       </c>
-      <c r="K144" s="8" t="s">
+      <c r="J144" s="8" t="s">
         <v>199</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>5470</v>
       </c>
@@ -5099,14 +5093,14 @@
       <c r="F145" t="s">
         <v>203</v>
       </c>
-      <c r="K145" s="8" t="s">
+      <c r="J145" s="8" t="s">
         <v>203</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>6463</v>
       </c>
@@ -5122,14 +5116,14 @@
       <c r="F146" t="s">
         <v>206</v>
       </c>
-      <c r="K146" s="8" t="s">
+      <c r="J146" s="8" t="s">
         <v>206</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>6469</v>
       </c>
@@ -5145,14 +5139,14 @@
       <c r="F147" t="s">
         <v>207</v>
       </c>
-      <c r="K147" s="8" t="s">
+      <c r="J147" s="8" t="s">
         <v>207</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>7475</v>
       </c>
@@ -5168,14 +5162,14 @@
       <c r="F148" t="s">
         <v>207</v>
       </c>
-      <c r="K148" s="8" t="s">
+      <c r="J148" s="8" t="s">
         <v>207</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>7501</v>
       </c>
@@ -5191,14 +5185,14 @@
       <c r="F149" t="s">
         <v>207</v>
       </c>
-      <c r="K149" s="8" t="s">
+      <c r="J149" s="8" t="s">
         <v>207</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>7462</v>
       </c>
@@ -5214,14 +5208,14 @@
       <c r="F150" t="s">
         <v>207</v>
       </c>
-      <c r="K150" s="8" t="s">
+      <c r="J150" s="8" t="s">
         <v>207</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>8104</v>
       </c>
@@ -5237,14 +5231,14 @@
       <c r="F151" t="s">
         <v>207</v>
       </c>
-      <c r="K151" s="8" t="s">
+      <c r="J151" s="8" t="s">
         <v>207</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>3767</v>
       </c>
@@ -5257,14 +5251,14 @@
       <c r="F152" t="s">
         <v>207</v>
       </c>
-      <c r="K152" s="8" t="s">
+      <c r="J152" s="8" t="s">
         <v>207</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>6012</v>
       </c>
@@ -5280,14 +5274,14 @@
       <c r="F153" t="s">
         <v>212</v>
       </c>
-      <c r="K153" s="8" t="s">
+      <c r="J153" s="8" t="s">
         <v>212</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>7669</v>
       </c>
@@ -5303,14 +5297,14 @@
       <c r="F154" t="s">
         <v>212</v>
       </c>
-      <c r="K154" s="8" t="s">
+      <c r="J154" s="8" t="s">
         <v>212</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>4554</v>
       </c>
@@ -5326,14 +5320,14 @@
       <c r="F155" t="s">
         <v>242</v>
       </c>
-      <c r="K155" s="8">
+      <c r="J155" s="8">
         <v>46</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>9523</v>
       </c>
@@ -5344,16 +5338,16 @@
         <v>220</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="K156" s="8" t="s">
-        <v>394</v>
+        <v>372</v>
+      </c>
+      <c r="J156" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>9523</v>
       </c>
@@ -5370,16 +5364,16 @@
         <v>215</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K157" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="J157" s="8" t="s">
         <v>215</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>9552</v>
       </c>
@@ -5395,14 +5389,14 @@
       <c r="F158" t="s">
         <v>215</v>
       </c>
-      <c r="K158" s="8" t="s">
+      <c r="J158" s="8" t="s">
         <v>215</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>9501</v>
       </c>
@@ -5418,14 +5412,14 @@
       <c r="F159" t="s">
         <v>215</v>
       </c>
-      <c r="K159" s="8" t="s">
+      <c r="J159" s="8" t="s">
         <v>215</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>4552</v>
       </c>
@@ -5436,16 +5430,16 @@
         <v>214</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="K160" s="8" t="s">
-        <v>394</v>
+        <v>372</v>
+      </c>
+      <c r="J160" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>4552</v>
       </c>
@@ -5462,16 +5456,16 @@
         <v>215</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K161" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="J161" s="8" t="s">
         <v>215</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>6767</v>
       </c>
@@ -5487,14 +5481,14 @@
       <c r="F162" t="s">
         <v>215</v>
       </c>
-      <c r="K162" s="8" t="s">
+      <c r="J162" s="8" t="s">
         <v>215</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>6757</v>
       </c>
@@ -5510,14 +5504,14 @@
       <c r="F163" t="s">
         <v>215</v>
       </c>
-      <c r="K163" s="8" t="s">
-        <v>395</v>
+      <c r="J163" s="8" t="s">
+        <v>392</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>6798</v>
       </c>
@@ -5533,14 +5527,14 @@
       <c r="F164" t="s">
         <v>215</v>
       </c>
-      <c r="K164" s="8" t="s">
+      <c r="J164" s="8" t="s">
         <v>215</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>7333</v>
       </c>
@@ -5556,14 +5550,14 @@
       <c r="F165" t="s">
         <v>215</v>
       </c>
-      <c r="K165" s="8" t="s">
+      <c r="J165" s="8" t="s">
         <v>215</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>7335</v>
       </c>
@@ -5579,14 +5573,14 @@
       <c r="F166" t="s">
         <v>215</v>
       </c>
-      <c r="K166" s="8" t="s">
-        <v>394</v>
+      <c r="J166" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>7037</v>
       </c>
@@ -5597,16 +5591,16 @@
         <v>218</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="K167" s="8" t="s">
-        <v>394</v>
+        <v>372</v>
+      </c>
+      <c r="J167" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>7037</v>
       </c>
@@ -5623,16 +5617,16 @@
         <v>215</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K168" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="J168" s="8" t="s">
         <v>215</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>111</v>
       </c>
@@ -5640,16 +5634,16 @@
         <v>214</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="K169" s="8" t="s">
-        <v>394</v>
+        <v>372</v>
+      </c>
+      <c r="J169" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>111</v>
       </c>
@@ -5663,16 +5657,16 @@
         <v>215</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K170" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="J170" s="8" t="s">
         <v>215</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>5667</v>
       </c>
@@ -5688,14 +5682,14 @@
       <c r="F171" t="s">
         <v>229</v>
       </c>
-      <c r="K171" s="8" t="s">
+      <c r="J171" s="8" t="s">
         <v>229</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>4559</v>
       </c>
@@ -5711,14 +5705,14 @@
       <c r="F172" t="s">
         <v>229</v>
       </c>
-      <c r="K172" s="8" t="s">
+      <c r="J172" s="8" t="s">
         <v>229</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>1568</v>
       </c>
@@ -5731,14 +5725,14 @@
       <c r="F173" t="s">
         <v>229</v>
       </c>
-      <c r="K173" s="8" t="s">
+      <c r="J173" s="8" t="s">
         <v>229</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>4553</v>
       </c>
@@ -5754,14 +5748,14 @@
       <c r="F174" t="s">
         <v>232</v>
       </c>
-      <c r="K174" s="8" t="s">
+      <c r="J174" s="8" t="s">
         <v>232</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>4565</v>
       </c>
@@ -5777,14 +5771,14 @@
       <c r="F175" t="s">
         <v>232</v>
       </c>
-      <c r="K175" s="8" t="s">
+      <c r="J175" s="8" t="s">
         <v>232</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>8109</v>
       </c>
@@ -5800,14 +5794,14 @@
       <c r="F176" t="s">
         <v>232</v>
       </c>
-      <c r="K176" s="8" t="s">
+      <c r="J176" s="8" t="s">
         <v>232</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>4560</v>
       </c>
@@ -5823,14 +5817,14 @@
       <c r="F177" t="s">
         <v>232</v>
       </c>
-      <c r="K177" s="8" t="s">
+      <c r="J177" s="8" t="s">
         <v>232</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>4401</v>
       </c>
@@ -5843,14 +5837,14 @@
       <c r="F178" t="s">
         <v>232</v>
       </c>
-      <c r="K178" s="8" t="s">
+      <c r="J178" s="8" t="s">
         <v>232</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>4551</v>
       </c>
@@ -5866,14 +5860,14 @@
       <c r="F179" t="s">
         <v>232</v>
       </c>
-      <c r="K179" s="8" t="s">
+      <c r="J179" s="8" t="s">
         <v>232</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>4563</v>
       </c>
@@ -5889,14 +5883,14 @@
       <c r="F180" t="s">
         <v>232</v>
       </c>
-      <c r="K180" s="8" t="s">
+      <c r="J180" s="8" t="s">
         <v>232</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>4561</v>
       </c>
@@ -5912,14 +5906,14 @@
       <c r="F181" t="s">
         <v>232</v>
       </c>
-      <c r="K181" s="8" t="s">
+      <c r="J181" s="8" t="s">
         <v>232</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>4400</v>
       </c>
@@ -5932,14 +5926,14 @@
       <c r="F182" t="s">
         <v>232</v>
       </c>
-      <c r="K182" s="8" t="s">
+      <c r="J182" s="8" t="s">
         <v>232</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>5910</v>
       </c>
@@ -5955,14 +5949,14 @@
       <c r="F183" t="s">
         <v>239</v>
       </c>
-      <c r="K183" s="8" t="s">
+      <c r="J183" s="8" t="s">
         <v>239</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>4877</v>
       </c>
@@ -5978,14 +5972,14 @@
       <c r="F184" t="s">
         <v>240</v>
       </c>
-      <c r="K184" s="8" t="s">
+      <c r="J184" s="8" t="s">
         <v>240</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>4930</v>
       </c>
@@ -6001,14 +5995,14 @@
       <c r="F185" t="s">
         <v>253</v>
       </c>
-      <c r="K185" s="8">
+      <c r="J185" s="8">
         <v>50</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>5362</v>
       </c>
@@ -6024,14 +6018,14 @@
       <c r="F186" t="s">
         <v>254</v>
       </c>
-      <c r="K186" s="8" t="s">
+      <c r="J186" s="8" t="s">
         <v>254</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>7124</v>
       </c>
@@ -6047,14 +6041,14 @@
       <c r="F187" t="s">
         <v>254</v>
       </c>
-      <c r="K187" s="8">
+      <c r="J187" s="8">
         <v>62</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>495</v>
       </c>
@@ -6067,14 +6061,14 @@
       <c r="F188" t="s">
         <v>254</v>
       </c>
-      <c r="K188" s="8" t="s">
+      <c r="J188" s="8" t="s">
         <v>254</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>4953</v>
       </c>
@@ -6090,14 +6084,14 @@
       <c r="F189" t="s">
         <v>257</v>
       </c>
-      <c r="K189" s="8">
+      <c r="J189" s="8">
         <v>63</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>5051</v>
       </c>
@@ -6116,14 +6110,14 @@
       <c r="F190" t="s">
         <v>259</v>
       </c>
-      <c r="K190" s="8" t="s">
+      <c r="J190" s="8" t="s">
         <v>259</v>
       </c>
       <c r="L190" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>527</v>
       </c>
@@ -6136,14 +6130,14 @@
       <c r="F191" t="s">
         <v>9</v>
       </c>
-      <c r="K191" s="8" t="s">
+      <c r="J191" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L191" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>5165</v>
       </c>
@@ -6159,14 +6153,14 @@
       <c r="F192" t="s">
         <v>9</v>
       </c>
-      <c r="K192" s="8" t="s">
+      <c r="J192" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L192" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>150</v>
       </c>
@@ -6179,14 +6173,14 @@
       <c r="F193" t="s">
         <v>10</v>
       </c>
-      <c r="K193" s="8" t="s">
+      <c r="J193" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L193" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>7569</v>
       </c>
@@ -6202,14 +6196,14 @@
       <c r="F194" t="s">
         <v>10</v>
       </c>
-      <c r="K194" s="8" t="s">
+      <c r="J194" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L194" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>8969</v>
       </c>
@@ -6225,14 +6219,14 @@
       <c r="F195" t="s">
         <v>10</v>
       </c>
-      <c r="K195" s="8" t="s">
+      <c r="J195" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L195" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>8026</v>
       </c>
@@ -6248,14 +6242,14 @@
       <c r="F196" t="s">
         <v>10</v>
       </c>
-      <c r="K196" s="8" t="s">
+      <c r="J196" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L196" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>4529</v>
       </c>
@@ -6271,14 +6265,14 @@
       <c r="F197" t="s">
         <v>10</v>
       </c>
-      <c r="K197" s="8" t="s">
+      <c r="J197" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L197" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>7834</v>
       </c>
@@ -6294,14 +6288,14 @@
       <c r="F198" t="s">
         <v>18</v>
       </c>
-      <c r="K198" s="8" t="s">
+      <c r="J198" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>500</v>
       </c>
@@ -6314,14 +6308,14 @@
       <c r="F199" t="s">
         <v>18</v>
       </c>
-      <c r="K199" s="8" t="s">
+      <c r="J199" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L199" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>4649</v>
       </c>
@@ -6337,14 +6331,14 @@
       <c r="F200" t="s">
         <v>18</v>
       </c>
-      <c r="K200" s="8" t="s">
+      <c r="J200" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>4618</v>
       </c>
@@ -6360,14 +6354,14 @@
       <c r="F201" t="s">
         <v>18</v>
       </c>
-      <c r="K201" s="8" t="s">
+      <c r="J201" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>4626</v>
       </c>
@@ -6383,14 +6377,14 @@
       <c r="F202" t="s">
         <v>18</v>
       </c>
-      <c r="K202" s="8" t="s">
+      <c r="J202" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L202" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>4634</v>
       </c>
@@ -6406,14 +6400,14 @@
       <c r="F203" t="s">
         <v>18</v>
       </c>
-      <c r="K203" s="8" t="s">
+      <c r="J203" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L203" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>7453</v>
       </c>
@@ -6429,14 +6423,14 @@
       <c r="F204" t="s">
         <v>18</v>
       </c>
-      <c r="K204" s="8" t="s">
+      <c r="J204" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L204" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>671</v>
       </c>
@@ -6449,14 +6443,14 @@
       <c r="F205" t="s">
         <v>24</v>
       </c>
-      <c r="K205" s="8" t="s">
+      <c r="J205" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L205" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>5016</v>
       </c>
@@ -6472,14 +6466,14 @@
       <c r="F206" t="s">
         <v>24</v>
       </c>
-      <c r="K206" s="8" t="s">
+      <c r="J206" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L206" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>7836</v>
       </c>
@@ -6495,14 +6489,14 @@
       <c r="F207" t="s">
         <v>24</v>
       </c>
-      <c r="K207" s="8" t="s">
+      <c r="J207" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L207" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>7609</v>
       </c>
@@ -6518,14 +6512,14 @@
       <c r="F208" t="s">
         <v>28</v>
       </c>
-      <c r="K208" s="8" t="s">
+      <c r="J208" s="8" t="s">
         <v>28</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>4668</v>
       </c>
@@ -6541,14 +6535,14 @@
       <c r="F209" t="s">
         <v>28</v>
       </c>
-      <c r="K209" s="8" t="s">
+      <c r="J209" s="8" t="s">
         <v>28</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>4640</v>
       </c>
@@ -6564,14 +6558,14 @@
       <c r="F210" t="s">
         <v>28</v>
       </c>
-      <c r="K210" s="8" t="s">
+      <c r="J210" s="8" t="s">
         <v>28</v>
       </c>
       <c r="L210" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>6668</v>
       </c>
@@ -6587,14 +6581,14 @@
       <c r="F211" t="s">
         <v>28</v>
       </c>
-      <c r="K211" s="8" t="s">
+      <c r="J211" s="8" t="s">
         <v>28</v>
       </c>
       <c r="L211" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>6772</v>
       </c>
@@ -6610,14 +6604,14 @@
       <c r="F212" t="s">
         <v>28</v>
       </c>
-      <c r="K212" s="8" t="s">
+      <c r="J212" s="8" t="s">
         <v>28</v>
       </c>
       <c r="L212" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>4621</v>
       </c>
@@ -6633,14 +6627,14 @@
       <c r="F213" t="s">
         <v>28</v>
       </c>
-      <c r="K213" s="8" t="s">
+      <c r="J213" s="8" t="s">
         <v>28</v>
       </c>
       <c r="L213" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>85</v>
       </c>
@@ -6653,14 +6647,14 @@
       <c r="F214" t="s">
         <v>28</v>
       </c>
-      <c r="K214" s="8" t="s">
+      <c r="J214" s="8" t="s">
         <v>28</v>
       </c>
       <c r="L214" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>7121</v>
       </c>
@@ -6676,14 +6670,14 @@
       <c r="F215" t="s">
         <v>33</v>
       </c>
-      <c r="K215" s="8" t="s">
+      <c r="J215" s="8" t="s">
         <v>33</v>
       </c>
       <c r="L215" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>7105</v>
       </c>
@@ -6699,14 +6693,14 @@
       <c r="F216" t="s">
         <v>33</v>
       </c>
-      <c r="K216" s="8" t="s">
+      <c r="J216" s="8" t="s">
         <v>33</v>
       </c>
       <c r="L216" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>4575</v>
       </c>
@@ -6722,14 +6716,14 @@
       <c r="F217" t="s">
         <v>33</v>
       </c>
-      <c r="K217" s="8" t="s">
+      <c r="J217" s="8" t="s">
         <v>33</v>
       </c>
       <c r="L217" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>7654</v>
       </c>
@@ -6745,14 +6739,14 @@
       <c r="F218" t="s">
         <v>33</v>
       </c>
-      <c r="K218" s="8" t="s">
+      <c r="J218" s="8" t="s">
         <v>33</v>
       </c>
       <c r="L218" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>60</v>
       </c>
@@ -6765,14 +6759,14 @@
       <c r="F219" t="s">
         <v>33</v>
       </c>
-      <c r="K219" s="8" t="s">
+      <c r="J219" s="8" t="s">
         <v>33</v>
       </c>
       <c r="L219" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>7479</v>
       </c>
@@ -6788,14 +6782,14 @@
       <c r="F220" t="s">
         <v>33</v>
       </c>
-      <c r="K220" s="8" t="s">
+      <c r="J220" s="8" t="s">
         <v>33</v>
       </c>
       <c r="L220" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>211</v>
       </c>
@@ -6808,14 +6802,14 @@
       <c r="F221" t="s">
         <v>38</v>
       </c>
-      <c r="K221" s="8" t="s">
+      <c r="J221" s="8" t="s">
         <v>38</v>
       </c>
       <c r="L221" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>5007</v>
       </c>
@@ -6831,14 +6825,14 @@
       <c r="F222" t="s">
         <v>38</v>
       </c>
-      <c r="K222" s="8" t="s">
+      <c r="J222" s="8" t="s">
         <v>38</v>
       </c>
       <c r="L222" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>7648</v>
       </c>
@@ -6854,14 +6848,14 @@
       <c r="F223" t="s">
         <v>38</v>
       </c>
-      <c r="K223" s="8" t="s">
+      <c r="J223" s="8" t="s">
         <v>38</v>
       </c>
       <c r="L223" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>5013</v>
       </c>
@@ -6877,14 +6871,14 @@
       <c r="F224" t="s">
         <v>40</v>
       </c>
-      <c r="K224" s="8" t="s">
+      <c r="J224" s="8" t="s">
         <v>40</v>
       </c>
       <c r="L224" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>6506</v>
       </c>
@@ -6900,14 +6894,14 @@
       <c r="F225" t="s">
         <v>42</v>
       </c>
-      <c r="K225" s="8" t="s">
+      <c r="J225" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L225" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>6658</v>
       </c>
@@ -6923,14 +6917,14 @@
       <c r="F226" t="s">
         <v>78</v>
       </c>
-      <c r="K226" s="8">
+      <c r="J226" s="8">
         <v>20</v>
       </c>
       <c r="L226" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>4531</v>
       </c>
@@ -6946,14 +6940,14 @@
       <c r="F227" t="s">
         <v>78</v>
       </c>
-      <c r="K227" s="8">
+      <c r="J227" s="8">
         <v>20</v>
       </c>
       <c r="L227" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>6871</v>
       </c>
@@ -6969,14 +6963,14 @@
       <c r="F228" t="s">
         <v>78</v>
       </c>
-      <c r="K228" s="8">
+      <c r="J228" s="8">
         <v>20</v>
       </c>
       <c r="L228" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>7019</v>
       </c>
@@ -6992,14 +6986,14 @@
       <c r="F229" t="s">
         <v>78</v>
       </c>
-      <c r="K229" s="8">
+      <c r="J229" s="8">
         <v>18</v>
       </c>
       <c r="L229" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>13</v>
       </c>
@@ -7012,14 +7006,14 @@
       <c r="F230" t="s">
         <v>78</v>
       </c>
-      <c r="K230" s="8">
+      <c r="J230" s="8">
         <v>20</v>
       </c>
       <c r="L230" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>6505</v>
       </c>
@@ -7035,14 +7029,14 @@
       <c r="F231" t="s">
         <v>96</v>
       </c>
-      <c r="K231" s="8" t="s">
+      <c r="J231" s="8" t="s">
         <v>96</v>
       </c>
       <c r="L231" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>4931</v>
       </c>
@@ -7058,14 +7052,14 @@
       <c r="F232" t="s">
         <v>98</v>
       </c>
-      <c r="K232" s="8" t="s">
+      <c r="J232" s="8" t="s">
         <v>98</v>
       </c>
       <c r="L232" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>6728</v>
       </c>
@@ -7081,14 +7075,14 @@
       <c r="F233" t="s">
         <v>98</v>
       </c>
-      <c r="K233" s="8" t="s">
+      <c r="J233" s="8" t="s">
         <v>98</v>
       </c>
       <c r="L233" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>126</v>
       </c>
@@ -7101,14 +7095,14 @@
       <c r="F234" t="s">
         <v>98</v>
       </c>
-      <c r="K234" s="8" t="s">
+      <c r="J234" s="8" t="s">
         <v>98</v>
       </c>
       <c r="L234" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>4535</v>
       </c>
@@ -7124,14 +7118,14 @@
       <c r="F235" t="s">
         <v>101</v>
       </c>
-      <c r="K235" s="8">
+      <c r="J235" s="8">
         <v>20</v>
       </c>
       <c r="L235" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>6941</v>
       </c>
@@ -7147,14 +7141,14 @@
       <c r="F236" t="s">
         <v>101</v>
       </c>
-      <c r="K236" s="8" t="s">
+      <c r="J236" s="8" t="s">
         <v>98</v>
       </c>
       <c r="L236" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>104</v>
       </c>
@@ -7167,14 +7161,14 @@
       <c r="F237" t="s">
         <v>101</v>
       </c>
-      <c r="K237" s="8">
+      <c r="J237" s="8">
         <v>20</v>
       </c>
       <c r="L237" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>9498</v>
       </c>
@@ -7193,23 +7187,20 @@
       <c r="F238" t="s">
         <v>105</v>
       </c>
-      <c r="J238" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K238" s="10">
+      <c r="J238" s="10">
         <v>19</v>
       </c>
       <c r="L238" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M238" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N238" s="9"/>
       <c r="O238" s="9"/>
       <c r="P238" s="9"/>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>4538</v>
       </c>
@@ -7228,14 +7219,14 @@
       <c r="F239" t="s">
         <v>105</v>
       </c>
-      <c r="K239" s="8" t="s">
+      <c r="J239" s="8" t="s">
         <v>105</v>
       </c>
       <c r="L239" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>7915</v>
       </c>
@@ -7254,14 +7245,14 @@
       <c r="F240" t="s">
         <v>105</v>
       </c>
-      <c r="K240" s="8" t="s">
+      <c r="J240" s="8" t="s">
         <v>105</v>
       </c>
       <c r="L240" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>8166</v>
       </c>
@@ -7280,14 +7271,14 @@
       <c r="F241" t="s">
         <v>105</v>
       </c>
-      <c r="K241" s="8" t="s">
+      <c r="J241" s="8" t="s">
         <v>105</v>
       </c>
       <c r="L241" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>7846</v>
       </c>
@@ -7306,14 +7297,14 @@
       <c r="F242" t="s">
         <v>105</v>
       </c>
-      <c r="K242" s="8" t="s">
+      <c r="J242" s="8" t="s">
         <v>105</v>
       </c>
       <c r="L242" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>7020</v>
       </c>
@@ -7332,14 +7323,14 @@
       <c r="F243" t="s">
         <v>105</v>
       </c>
-      <c r="K243" s="8" t="s">
+      <c r="J243" s="8" t="s">
         <v>105</v>
       </c>
       <c r="L243" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>122</v>
       </c>
@@ -7355,14 +7346,14 @@
       <c r="F244" t="s">
         <v>105</v>
       </c>
-      <c r="K244" s="8" t="s">
+      <c r="J244" s="8" t="s">
         <v>105</v>
       </c>
       <c r="L244" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>9499</v>
       </c>
@@ -7381,23 +7372,20 @@
       <c r="F245" t="s">
         <v>110</v>
       </c>
-      <c r="J245" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K245" s="10">
+      <c r="J245" s="10">
         <v>19</v>
       </c>
       <c r="L245" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M245" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N245" s="9"/>
       <c r="O245" s="9"/>
       <c r="P245" s="9"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>4539</v>
       </c>
@@ -7416,14 +7404,14 @@
       <c r="F246" t="s">
         <v>110</v>
       </c>
-      <c r="K246" s="8" t="s">
+      <c r="J246" s="8" t="s">
         <v>105</v>
       </c>
       <c r="L246" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>7916</v>
       </c>
@@ -7442,14 +7430,14 @@
       <c r="F247" t="s">
         <v>110</v>
       </c>
-      <c r="K247" s="8" t="s">
+      <c r="J247" s="8" t="s">
         <v>105</v>
       </c>
       <c r="L247" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>8167</v>
       </c>
@@ -7468,14 +7456,14 @@
       <c r="F248" t="s">
         <v>110</v>
       </c>
-      <c r="K248" s="8" t="s">
+      <c r="J248" s="8" t="s">
         <v>105</v>
       </c>
       <c r="L248" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>7847</v>
       </c>
@@ -7494,14 +7482,14 @@
       <c r="F249" t="s">
         <v>110</v>
       </c>
-      <c r="K249" s="8" t="s">
+      <c r="J249" s="8" t="s">
         <v>105</v>
       </c>
       <c r="L249" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>7021</v>
       </c>
@@ -7520,14 +7508,14 @@
       <c r="F250" t="s">
         <v>110</v>
       </c>
-      <c r="K250" s="8" t="s">
+      <c r="J250" s="8" t="s">
         <v>105</v>
       </c>
       <c r="L250" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>123</v>
       </c>
@@ -7543,14 +7531,14 @@
       <c r="F251" t="s">
         <v>110</v>
       </c>
-      <c r="K251" s="8" t="s">
+      <c r="J251" s="8" t="s">
         <v>105</v>
       </c>
       <c r="L251" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>4604</v>
       </c>
@@ -7566,14 +7554,14 @@
       <c r="F252" t="s">
         <v>121</v>
       </c>
-      <c r="K252" s="8" t="s">
+      <c r="J252" s="8" t="s">
         <v>121</v>
       </c>
       <c r="L252" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>7023</v>
       </c>
@@ -7589,14 +7577,14 @@
       <c r="F253" t="s">
         <v>121</v>
       </c>
-      <c r="K253" s="8" t="s">
+      <c r="J253" s="8" t="s">
         <v>121</v>
       </c>
       <c r="L253" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>6853</v>
       </c>
@@ -7612,14 +7600,14 @@
       <c r="F254" t="s">
         <v>121</v>
       </c>
-      <c r="K254" s="8" t="s">
+      <c r="J254" s="8" t="s">
         <v>121</v>
       </c>
       <c r="L254" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>7779</v>
       </c>
@@ -7635,14 +7623,14 @@
       <c r="F255" t="s">
         <v>121</v>
       </c>
-      <c r="K255" s="8" t="s">
+      <c r="J255" s="8" t="s">
         <v>121</v>
       </c>
       <c r="L255" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>5</v>
       </c>
@@ -7655,14 +7643,14 @@
       <c r="F256" t="s">
         <v>121</v>
       </c>
-      <c r="K256" s="8" t="s">
+      <c r="J256" s="8" t="s">
         <v>121</v>
       </c>
       <c r="L256" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>9556</v>
       </c>
@@ -7678,23 +7666,20 @@
       <c r="F257" t="s">
         <v>125</v>
       </c>
-      <c r="J257" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="K257" s="10">
+      <c r="J257" s="10">
         <v>18</v>
       </c>
       <c r="L257" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M257" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N257" s="9"/>
       <c r="O257" s="9"/>
       <c r="P257" s="9"/>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>4880</v>
       </c>
@@ -7710,14 +7695,14 @@
       <c r="F258" t="s">
         <v>125</v>
       </c>
-      <c r="K258" s="8" t="s">
+      <c r="J258" s="8" t="s">
         <v>125</v>
       </c>
       <c r="L258" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>74</v>
       </c>
@@ -7730,14 +7715,14 @@
       <c r="F259" t="s">
         <v>125</v>
       </c>
-      <c r="K259" s="8" t="s">
+      <c r="J259" s="8" t="s">
         <v>125</v>
       </c>
       <c r="L259" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>5157</v>
       </c>
@@ -7753,14 +7738,14 @@
       <c r="F260" t="s">
         <v>125</v>
       </c>
-      <c r="K260" s="8" t="s">
+      <c r="J260" s="8" t="s">
         <v>125</v>
       </c>
       <c r="L260" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>6934</v>
       </c>
@@ -7776,14 +7761,14 @@
       <c r="F261" t="s">
         <v>125</v>
       </c>
-      <c r="K261" s="8" t="s">
+      <c r="J261" s="8" t="s">
         <v>125</v>
       </c>
       <c r="L261" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>5924</v>
       </c>
@@ -7799,11 +7784,14 @@
       <c r="F262" t="s">
         <v>134</v>
       </c>
-      <c r="K262" s="8" t="s">
+      <c r="J262" s="8" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L262" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>5015</v>
       </c>
@@ -7819,11 +7807,14 @@
       <c r="F263" t="s">
         <v>135</v>
       </c>
-      <c r="K263" s="8" t="s">
+      <c r="J263" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L263" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>4591</v>
       </c>
@@ -7839,11 +7830,14 @@
       <c r="F264" t="s">
         <v>168</v>
       </c>
-      <c r="K264" s="8" t="s">
+      <c r="J264" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L264" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>6908</v>
       </c>
@@ -7859,11 +7853,14 @@
       <c r="F265" t="s">
         <v>168</v>
       </c>
-      <c r="K265" s="8" t="s">
+      <c r="J265" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L265" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>7012</v>
       </c>
@@ -7879,11 +7876,14 @@
       <c r="F266" t="s">
         <v>168</v>
       </c>
-      <c r="K266" s="8" t="s">
+      <c r="J266" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L266" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>6884</v>
       </c>
@@ -7899,11 +7899,14 @@
       <c r="F267" t="s">
         <v>168</v>
       </c>
-      <c r="K267" s="8" t="s">
+      <c r="J267" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L267" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>7</v>
       </c>
@@ -7916,11 +7919,14 @@
       <c r="F268" t="s">
         <v>168</v>
       </c>
-      <c r="K268" s="8" t="s">
+      <c r="J268" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L268" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>9096</v>
       </c>
@@ -7936,14 +7942,14 @@
       <c r="F269" t="s">
         <v>175</v>
       </c>
-      <c r="K269" s="8" t="s">
+      <c r="J269" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L269" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>4606</v>
       </c>
@@ -7959,11 +7965,14 @@
       <c r="F270" t="s">
         <v>182</v>
       </c>
-      <c r="K270" s="8" t="s">
+      <c r="J270" s="8" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L270" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>1</v>
       </c>
@@ -7976,11 +7985,14 @@
       <c r="F271" t="s">
         <v>182</v>
       </c>
-      <c r="K271" s="8" t="s">
+      <c r="J271" s="8" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L271" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>4648</v>
       </c>
@@ -7996,11 +8008,14 @@
       <c r="F272" t="s">
         <v>192</v>
       </c>
-      <c r="K272" s="8" t="s">
+      <c r="J272" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L272" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>7463</v>
       </c>
@@ -8016,11 +8031,14 @@
       <c r="F273" t="s">
         <v>192</v>
       </c>
-      <c r="K273" s="8" t="s">
+      <c r="J273" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L273" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>4659</v>
       </c>
@@ -8036,11 +8054,14 @@
       <c r="F274" t="s">
         <v>192</v>
       </c>
-      <c r="K274" s="8" t="s">
+      <c r="J274" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L274" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>7474</v>
       </c>
@@ -8056,11 +8077,14 @@
       <c r="F275" t="s">
         <v>192</v>
       </c>
-      <c r="K275" s="8" t="s">
+      <c r="J275" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L275" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>6438</v>
       </c>
@@ -8076,11 +8100,14 @@
       <c r="F276" t="s">
         <v>196</v>
       </c>
-      <c r="K276" s="8" t="s">
+      <c r="J276" s="8" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L276" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>4655</v>
       </c>
@@ -8097,16 +8124,16 @@
         <v>205</v>
       </c>
       <c r="H277" t="s">
-        <v>373</v>
-      </c>
-      <c r="K277" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="J277" s="8" t="s">
         <v>205</v>
       </c>
       <c r="L277" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>4655</v>
       </c>
@@ -8120,16 +8147,16 @@
         <v>204</v>
       </c>
       <c r="H278" t="s">
-        <v>381</v>
-      </c>
-      <c r="K278" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
+      </c>
+      <c r="J278" s="8" t="s">
+        <v>379</v>
       </c>
       <c r="L278" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>4907</v>
       </c>
@@ -8140,16 +8167,16 @@
         <v>226</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="K279" s="8" t="s">
-        <v>394</v>
+        <v>372</v>
+      </c>
+      <c r="J279" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="L279" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>4907</v>
       </c>
@@ -8166,16 +8193,16 @@
         <v>227</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K280" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="J280" s="8" t="s">
         <v>227</v>
       </c>
       <c r="L280" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>3524</v>
       </c>
@@ -8183,16 +8210,16 @@
         <v>226</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="K281" s="8" t="s">
-        <v>394</v>
+        <v>372</v>
+      </c>
+      <c r="J281" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="L281" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>3524</v>
       </c>
@@ -8206,16 +8233,16 @@
         <v>227</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K282" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="J282" s="8" t="s">
         <v>227</v>
       </c>
       <c r="L282" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>9557</v>
       </c>
@@ -8232,22 +8259,19 @@
         <v>224</v>
       </c>
       <c r="J283" s="10">
-        <v>46</v>
-      </c>
-      <c r="K283" s="10">
         <v>18</v>
       </c>
       <c r="L283" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M283" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N283" s="9"/>
       <c r="O283" s="9"/>
       <c r="P283" s="9"/>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>9561</v>
       </c>
@@ -8264,22 +8288,19 @@
         <v>224</v>
       </c>
       <c r="J284" s="10">
-        <v>46</v>
-      </c>
-      <c r="K284" s="10">
         <v>19</v>
       </c>
       <c r="L284" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M284" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N284" s="9"/>
       <c r="O284" s="9"/>
       <c r="P284" s="9"/>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>4936</v>
       </c>
@@ -8295,14 +8316,14 @@
       <c r="F285" t="s">
         <v>224</v>
       </c>
-      <c r="K285" s="8">
+      <c r="J285" s="8">
         <v>46</v>
       </c>
       <c r="L285" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>6937</v>
       </c>
@@ -8318,14 +8339,14 @@
       <c r="F286" t="s">
         <v>224</v>
       </c>
-      <c r="K286" s="8">
+      <c r="J286" s="8">
         <v>46</v>
       </c>
       <c r="L286" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>3516</v>
       </c>
@@ -8338,14 +8359,14 @@
       <c r="F287" t="s">
         <v>224</v>
       </c>
-      <c r="K287" s="8">
+      <c r="J287" s="8">
         <v>46</v>
       </c>
       <c r="L287" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>4519</v>
       </c>
@@ -8358,14 +8379,14 @@
       <c r="F288" t="s">
         <v>242</v>
       </c>
-      <c r="K288" s="8">
+      <c r="J288" s="8">
         <v>46</v>
       </c>
       <c r="L288" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>4556</v>
       </c>
@@ -8384,17 +8405,17 @@
       <c r="F289" t="s">
         <v>247</v>
       </c>
-      <c r="K289" s="8" t="s">
+      <c r="J289" s="8" t="s">
         <v>249</v>
       </c>
       <c r="L289" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M289" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>4558</v>
       </c>
@@ -8413,17 +8434,17 @@
       <c r="F290" t="s">
         <v>247</v>
       </c>
-      <c r="K290" s="8" t="s">
+      <c r="J290" s="8" t="s">
         <v>249</v>
       </c>
       <c r="L290" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M290" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>3</v>
       </c>
@@ -8439,17 +8460,17 @@
       <c r="F291" t="s">
         <v>247</v>
       </c>
-      <c r="K291" s="8" t="s">
+      <c r="J291" s="8" t="s">
         <v>249</v>
       </c>
       <c r="L291" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M291" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>4555</v>
       </c>
@@ -8468,14 +8489,14 @@
       <c r="F292" t="s">
         <v>249</v>
       </c>
-      <c r="K292" s="8" t="s">
+      <c r="J292" s="8" t="s">
         <v>249</v>
       </c>
       <c r="L292" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>4557</v>
       </c>
@@ -8494,14 +8515,14 @@
       <c r="F293" t="s">
         <v>249</v>
       </c>
-      <c r="K293" s="8" t="s">
+      <c r="J293" s="8" t="s">
         <v>249</v>
       </c>
       <c r="L293" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>2</v>
       </c>
@@ -8517,14 +8538,14 @@
       <c r="F294" t="s">
         <v>249</v>
       </c>
-      <c r="K294" s="8" t="s">
+      <c r="J294" s="8" t="s">
         <v>249</v>
       </c>
       <c r="L294" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>4770</v>
       </c>
@@ -8540,14 +8561,14 @@
       <c r="F295" t="s">
         <v>258</v>
       </c>
-      <c r="K295" s="8" t="s">
+      <c r="J295" s="8" t="s">
         <v>258</v>
       </c>
       <c r="L295" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>246</v>
       </c>
@@ -8560,14 +8581,14 @@
       <c r="F296" t="s">
         <v>258</v>
       </c>
-      <c r="K296" s="8" t="s">
+      <c r="J296" s="8" t="s">
         <v>258</v>
       </c>
       <c r="L296" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>5052</v>
       </c>
@@ -8586,14 +8607,14 @@
       <c r="F297" t="s">
         <v>261</v>
       </c>
-      <c r="K297" s="8" t="s">
+      <c r="J297" s="8" t="s">
         <v>261</v>
       </c>
       <c r="L297" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>8499</v>
       </c>
@@ -8609,14 +8630,14 @@
       <c r="F298" t="s">
         <v>263</v>
       </c>
-      <c r="K298" s="8" t="s">
+      <c r="J298" s="8" t="s">
         <v>263</v>
       </c>
       <c r="L298" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>4544</v>
       </c>
@@ -8632,14 +8653,14 @@
       <c r="F299" t="s">
         <v>263</v>
       </c>
-      <c r="K299" s="8" t="s">
+      <c r="J299" s="8" t="s">
         <v>263</v>
       </c>
       <c r="L299" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>8018</v>
       </c>
@@ -8655,14 +8676,14 @@
       <c r="F300" t="s">
         <v>263</v>
       </c>
-      <c r="K300" s="8" t="s">
+      <c r="J300" s="8" t="s">
         <v>263</v>
       </c>
       <c r="L300" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>7186</v>
       </c>
@@ -8678,14 +8699,14 @@
       <c r="F301" t="s">
         <v>263</v>
       </c>
-      <c r="K301" s="8" t="s">
+      <c r="J301" s="8" t="s">
         <v>263</v>
       </c>
       <c r="L301" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>8010</v>
       </c>
@@ -8701,14 +8722,14 @@
       <c r="F302" t="s">
         <v>263</v>
       </c>
-      <c r="K302" s="8" t="s">
+      <c r="J302" s="8" t="s">
         <v>263</v>
       </c>
       <c r="L302" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>8058</v>
       </c>
@@ -8724,14 +8745,14 @@
       <c r="F303" t="s">
         <v>263</v>
       </c>
-      <c r="K303" s="8" t="s">
+      <c r="J303" s="8" t="s">
         <v>263</v>
       </c>
       <c r="L303" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>8123</v>
       </c>
@@ -8747,14 +8768,14 @@
       <c r="F304" t="s">
         <v>263</v>
       </c>
-      <c r="K304" s="8" t="s">
+      <c r="J304" s="8" t="s">
         <v>280</v>
       </c>
       <c r="L304" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>8020</v>
       </c>
@@ -8770,14 +8791,14 @@
       <c r="F305" t="s">
         <v>263</v>
       </c>
-      <c r="K305" s="8" t="s">
+      <c r="J305" s="8" t="s">
         <v>263</v>
       </c>
       <c r="L305" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>7461</v>
       </c>
@@ -8793,14 +8814,14 @@
       <c r="F306" t="s">
         <v>263</v>
       </c>
-      <c r="K306" s="8" t="s">
+      <c r="J306" s="8" t="s">
         <v>263</v>
       </c>
       <c r="L306" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>4543</v>
       </c>
@@ -8816,14 +8837,14 @@
       <c r="F307" t="s">
         <v>263</v>
       </c>
-      <c r="K307" s="8" t="s">
+      <c r="J307" s="8" t="s">
         <v>263</v>
       </c>
       <c r="L307" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>7460</v>
       </c>
@@ -8839,14 +8860,14 @@
       <c r="F308" t="s">
         <v>263</v>
       </c>
-      <c r="K308" s="8" t="s">
+      <c r="J308" s="8" t="s">
         <v>263</v>
       </c>
       <c r="L308" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>7805</v>
       </c>
@@ -8862,14 +8883,14 @@
       <c r="F309" t="s">
         <v>263</v>
       </c>
-      <c r="K309" s="8" t="s">
+      <c r="J309" s="8" t="s">
         <v>263</v>
       </c>
       <c r="L309" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>4616</v>
       </c>
@@ -8885,14 +8906,14 @@
       <c r="F310" t="s">
         <v>263</v>
       </c>
-      <c r="K310" s="8" t="s">
+      <c r="J310" s="8" t="s">
         <v>263</v>
       </c>
       <c r="L310" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>158</v>
       </c>
@@ -8905,14 +8926,14 @@
       <c r="F311" t="s">
         <v>263</v>
       </c>
-      <c r="K311" s="8" t="s">
+      <c r="J311" s="8" t="s">
         <v>263</v>
       </c>
       <c r="L311" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>7201</v>
       </c>
@@ -8928,14 +8949,14 @@
       <c r="F312" t="s">
         <v>263</v>
       </c>
-      <c r="K312" s="8" t="s">
+      <c r="J312" s="8" t="s">
         <v>263</v>
       </c>
       <c r="L312" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>7202</v>
       </c>
@@ -8951,14 +8972,14 @@
       <c r="F313" t="s">
         <v>263</v>
       </c>
-      <c r="K313" s="8" t="s">
+      <c r="J313" s="8" t="s">
         <v>263</v>
       </c>
       <c r="L313" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>8274</v>
       </c>
@@ -8974,14 +8995,14 @@
       <c r="F314" t="s">
         <v>286</v>
       </c>
-      <c r="K314" s="8" t="s">
+      <c r="J314" s="8" t="s">
         <v>285</v>
       </c>
       <c r="L314" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>4996</v>
       </c>
@@ -8997,14 +9018,14 @@
       <c r="F315" t="s">
         <v>286</v>
       </c>
-      <c r="K315" s="8" t="s">
+      <c r="J315" s="8" t="s">
         <v>285</v>
       </c>
       <c r="L315" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>159</v>
       </c>
@@ -9017,14 +9038,14 @@
       <c r="F316" t="s">
         <v>286</v>
       </c>
-      <c r="K316" s="8" t="s">
+      <c r="J316" s="8" t="s">
         <v>285</v>
       </c>
       <c r="L316" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>4978</v>
       </c>
@@ -9040,14 +9061,14 @@
       <c r="F317" t="s">
         <v>289</v>
       </c>
-      <c r="K317" s="8" t="s">
+      <c r="J317" s="8" t="s">
         <v>288</v>
       </c>
       <c r="L317" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>8126</v>
       </c>
@@ -9063,14 +9084,14 @@
       <c r="F318" t="s">
         <v>289</v>
       </c>
-      <c r="K318" s="8" t="s">
+      <c r="J318" s="8" t="s">
         <v>288</v>
       </c>
       <c r="L318" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>7175</v>
       </c>
@@ -9086,14 +9107,14 @@
       <c r="F319" t="s">
         <v>289</v>
       </c>
-      <c r="K319" s="8" t="s">
+      <c r="J319" s="8" t="s">
         <v>288</v>
       </c>
       <c r="L319" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>157</v>
       </c>
@@ -9106,14 +9127,14 @@
       <c r="F320" t="s">
         <v>289</v>
       </c>
-      <c r="K320" s="8" t="s">
+      <c r="J320" s="8" t="s">
         <v>288</v>
       </c>
       <c r="L320" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>8464</v>
       </c>
@@ -9129,14 +9150,14 @@
       <c r="F321" t="s">
         <v>294</v>
       </c>
-      <c r="K321" s="8" t="s">
+      <c r="J321" s="8" t="s">
         <v>292</v>
       </c>
       <c r="L321" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>4686</v>
       </c>
@@ -9152,14 +9173,14 @@
       <c r="F322" t="s">
         <v>294</v>
       </c>
-      <c r="K322" s="8" t="s">
+      <c r="J322" s="8" t="s">
         <v>292</v>
       </c>
       <c r="L322" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>7478</v>
       </c>
@@ -9175,14 +9196,14 @@
       <c r="F323" t="s">
         <v>294</v>
       </c>
-      <c r="K323" s="8" t="s">
+      <c r="J323" s="8" t="s">
         <v>292</v>
       </c>
       <c r="L323" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>7477</v>
       </c>
@@ -9198,14 +9219,14 @@
       <c r="F324" t="s">
         <v>294</v>
       </c>
-      <c r="K324" s="8" t="s">
+      <c r="J324" s="8" t="s">
         <v>292</v>
       </c>
       <c r="L324" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>7469</v>
       </c>
@@ -9221,14 +9242,14 @@
       <c r="F325" t="s">
         <v>294</v>
       </c>
-      <c r="K325" s="8" t="s">
+      <c r="J325" s="8" t="s">
         <v>292</v>
       </c>
       <c r="L325" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>7499</v>
       </c>
@@ -9244,14 +9265,14 @@
       <c r="F326" t="s">
         <v>294</v>
       </c>
-      <c r="K326" s="8" t="s">
+      <c r="J326" s="8" t="s">
         <v>292</v>
       </c>
       <c r="L326" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>145</v>
       </c>
@@ -9264,14 +9285,14 @@
       <c r="F327" t="s">
         <v>294</v>
       </c>
-      <c r="K327" s="8" t="s">
+      <c r="J327" s="8" t="s">
         <v>292</v>
       </c>
       <c r="L327" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>9683</v>
       </c>
@@ -9287,14 +9308,14 @@
       <c r="F328" t="s">
         <v>281</v>
       </c>
-      <c r="K328" s="8" t="s">
+      <c r="J328" s="8" t="s">
         <v>281</v>
       </c>
       <c r="L328" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>4711</v>
       </c>
@@ -9310,14 +9331,14 @@
       <c r="F329" t="s">
         <v>281</v>
       </c>
-      <c r="K329" s="8" t="s">
+      <c r="J329" s="8" t="s">
         <v>281</v>
       </c>
       <c r="L329" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>9664</v>
       </c>
@@ -9333,14 +9354,14 @@
       <c r="F330" t="s">
         <v>281</v>
       </c>
-      <c r="K330" s="8" t="s">
+      <c r="J330" s="8" t="s">
         <v>281</v>
       </c>
       <c r="L330" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>9685</v>
       </c>
@@ -9356,14 +9377,14 @@
       <c r="F331" t="s">
         <v>281</v>
       </c>
-      <c r="K331" s="8" t="s">
+      <c r="J331" s="8" t="s">
         <v>281</v>
       </c>
       <c r="L331" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>240</v>
       </c>
@@ -9376,14 +9397,14 @@
       <c r="F332" t="s">
         <v>281</v>
       </c>
-      <c r="K332" s="8" t="s">
+      <c r="J332" s="8" t="s">
         <v>281</v>
       </c>
       <c r="L332" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>8967</v>
       </c>
@@ -9399,14 +9420,14 @@
       <c r="F333" t="s">
         <v>280</v>
       </c>
-      <c r="K333" s="8" t="s">
+      <c r="J333" s="8" t="s">
         <v>280</v>
       </c>
       <c r="L333" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>7158</v>
       </c>
@@ -9422,14 +9443,14 @@
       <c r="F334" t="s">
         <v>280</v>
       </c>
-      <c r="K334" s="8" t="s">
+      <c r="J334" s="8" t="s">
         <v>280</v>
       </c>
       <c r="L334" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>8315</v>
       </c>
@@ -9445,14 +9466,14 @@
       <c r="F335" t="s">
         <v>280</v>
       </c>
-      <c r="K335" s="8" t="s">
+      <c r="J335" s="8" t="s">
         <v>299</v>
       </c>
       <c r="L335" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>4545</v>
       </c>
@@ -9468,14 +9489,14 @@
       <c r="F336" t="s">
         <v>280</v>
       </c>
-      <c r="K336" s="8" t="s">
+      <c r="J336" s="8" t="s">
         <v>299</v>
       </c>
       <c r="L336" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>7164</v>
       </c>
@@ -9491,14 +9512,14 @@
       <c r="F337" t="s">
         <v>280</v>
       </c>
-      <c r="K337" s="8" t="s">
+      <c r="J337" s="8" t="s">
         <v>299</v>
       </c>
       <c r="L337" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>4526</v>
       </c>
@@ -9514,14 +9535,14 @@
       <c r="F338" t="s">
         <v>280</v>
       </c>
-      <c r="K338" s="8" t="s">
+      <c r="J338" s="8" t="s">
         <v>299</v>
       </c>
       <c r="L338" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>7468</v>
       </c>
@@ -9537,14 +9558,14 @@
       <c r="F339" t="s">
         <v>280</v>
       </c>
-      <c r="K339" s="8" t="s">
+      <c r="J339" s="8" t="s">
         <v>299</v>
       </c>
       <c r="L339" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>7470</v>
       </c>
@@ -9560,14 +9581,14 @@
       <c r="F340" t="s">
         <v>280</v>
       </c>
-      <c r="K340" s="8" t="s">
+      <c r="J340" s="8" t="s">
         <v>299</v>
       </c>
       <c r="L340" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>8017</v>
       </c>
@@ -9583,14 +9604,14 @@
       <c r="F341" t="s">
         <v>280</v>
       </c>
-      <c r="K341" s="8" t="s">
+      <c r="J341" s="8" t="s">
         <v>299</v>
       </c>
       <c r="L341" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>163</v>
       </c>
@@ -9603,14 +9624,14 @@
       <c r="F342" t="s">
         <v>280</v>
       </c>
-      <c r="K342" s="8" t="s">
+      <c r="J342" s="8" t="s">
         <v>299</v>
       </c>
       <c r="L342" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>9015</v>
       </c>
@@ -9626,14 +9647,14 @@
       <c r="F343" t="s">
         <v>306</v>
       </c>
-      <c r="K343" s="8" t="s">
+      <c r="J343" s="8" t="s">
         <v>306</v>
       </c>
       <c r="L343" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>9507</v>
       </c>
@@ -9656,16 +9677,16 @@
         <v>18</v>
       </c>
       <c r="L344" s="11" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M344" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N344" s="9"/>
       <c r="O344" s="9"/>
       <c r="P344" s="9"/>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>4542</v>
       </c>
@@ -9685,10 +9706,10 @@
         <v>306</v>
       </c>
       <c r="L345" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>7631</v>
       </c>
@@ -9711,10 +9732,10 @@
         <v>1</v>
       </c>
       <c r="L346" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>6745</v>
       </c>
@@ -9737,10 +9758,10 @@
         <v>19</v>
       </c>
       <c r="L347" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>7039</v>
       </c>
@@ -9760,13 +9781,13 @@
         <v>306</v>
       </c>
       <c r="K348" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L348" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>4608</v>
       </c>
@@ -9789,10 +9810,10 @@
         <v>332</v>
       </c>
       <c r="L349" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>4568</v>
       </c>
@@ -9815,10 +9836,10 @@
         <v>125</v>
       </c>
       <c r="L350" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>6681</v>
       </c>
@@ -9841,10 +9862,10 @@
         <v>73</v>
       </c>
       <c r="L351" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>2070</v>
       </c>
@@ -9861,10 +9882,10 @@
         <v>306</v>
       </c>
       <c r="L352" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>8548</v>
       </c>
@@ -9884,10 +9905,10 @@
         <v>73</v>
       </c>
       <c r="L353" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>4569</v>
       </c>
@@ -9907,10 +9928,10 @@
         <v>73</v>
       </c>
       <c r="L354" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>7716</v>
       </c>
@@ -9930,10 +9951,10 @@
         <v>73</v>
       </c>
       <c r="L355" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>8006</v>
       </c>
@@ -9956,10 +9977,10 @@
         <v>342</v>
       </c>
       <c r="L356" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>7001</v>
       </c>
@@ -9982,10 +10003,10 @@
         <v>17</v>
       </c>
       <c r="L357" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>6632</v>
       </c>
@@ -10005,10 +10026,10 @@
         <v>73</v>
       </c>
       <c r="L358" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>4541</v>
       </c>
@@ -10031,10 +10052,10 @@
         <v>331</v>
       </c>
       <c r="L359" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>6653</v>
       </c>
@@ -10057,10 +10078,10 @@
         <v>342</v>
       </c>
       <c r="L360" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>6682</v>
       </c>
@@ -10083,10 +10104,10 @@
         <v>355</v>
       </c>
       <c r="L361" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>6768</v>
       </c>
@@ -10109,10 +10130,10 @@
         <v>17</v>
       </c>
       <c r="L362" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>7813</v>
       </c>
@@ -10135,10 +10156,10 @@
         <v>26</v>
       </c>
       <c r="L363" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>7452</v>
       </c>
@@ -10161,10 +10182,10 @@
         <v>26</v>
       </c>
       <c r="L364" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>6694</v>
       </c>
@@ -10187,10 +10208,10 @@
         <v>306</v>
       </c>
       <c r="L365" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>6801</v>
       </c>
@@ -10213,10 +10234,10 @@
         <v>331</v>
       </c>
       <c r="L366" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>4550</v>
       </c>
@@ -10239,10 +10260,10 @@
         <v>94</v>
       </c>
       <c r="L367" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>4674</v>
       </c>
@@ -10265,10 +10286,10 @@
         <v>342</v>
       </c>
       <c r="L368" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>53</v>
       </c>
@@ -10285,10 +10306,10 @@
         <v>73</v>
       </c>
       <c r="L369" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>8925</v>
       </c>
@@ -10308,10 +10329,10 @@
         <v>73</v>
       </c>
       <c r="L370" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>4617</v>
       </c>
@@ -10331,10 +10352,10 @@
         <v>342</v>
       </c>
       <c r="L371" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>8148</v>
       </c>
@@ -10357,10 +10378,10 @@
         <v>73</v>
       </c>
       <c r="L372" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>6641</v>
       </c>
@@ -10383,10 +10404,10 @@
         <v>17</v>
       </c>
       <c r="L373" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>6617</v>
       </c>
@@ -10409,10 +10430,10 @@
         <v>73</v>
       </c>
       <c r="L374" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>6650</v>
       </c>
@@ -10435,10 +10456,10 @@
         <v>355</v>
       </c>
       <c r="L375" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>7825</v>
       </c>
@@ -10461,10 +10482,10 @@
         <v>18</v>
       </c>
       <c r="L376" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>7613</v>
       </c>
@@ -10487,10 +10508,10 @@
         <v>17</v>
       </c>
       <c r="L377" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>6636</v>
       </c>
@@ -10513,10 +10534,10 @@
         <v>26</v>
       </c>
       <c r="L378" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>6618</v>
       </c>
@@ -10539,10 +10560,10 @@
         <v>26</v>
       </c>
       <c r="L379" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>6622</v>
       </c>
@@ -10565,10 +10586,10 @@
         <v>178</v>
       </c>
       <c r="L380" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>7833</v>
       </c>
@@ -10591,10 +10612,10 @@
         <v>331</v>
       </c>
       <c r="L381" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>6652</v>
       </c>
@@ -10617,10 +10638,10 @@
         <v>355</v>
       </c>
       <c r="L382" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>59</v>
       </c>
@@ -10637,10 +10658,10 @@
         <v>342</v>
       </c>
       <c r="L383" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>4615</v>
       </c>
@@ -10660,10 +10681,10 @@
         <v>339</v>
       </c>
       <c r="L384" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>7884</v>
       </c>
@@ -10686,10 +10707,10 @@
         <v>17</v>
       </c>
       <c r="L385" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>532</v>
       </c>
@@ -10706,10 +10727,10 @@
         <v>339</v>
       </c>
       <c r="L386" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>4573</v>
       </c>
@@ -10729,10 +10750,10 @@
         <v>332</v>
       </c>
       <c r="L387" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>6644</v>
       </c>
@@ -10755,10 +10776,10 @@
         <v>306</v>
       </c>
       <c r="L388" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>324</v>
       </c>
@@ -10775,10 +10796,10 @@
         <v>332</v>
       </c>
       <c r="L389" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>9014</v>
       </c>
@@ -10798,10 +10819,10 @@
         <v>94</v>
       </c>
       <c r="L390" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>4540</v>
       </c>
@@ -10821,10 +10842,10 @@
         <v>94</v>
       </c>
       <c r="L391" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>7038</v>
       </c>
@@ -10847,10 +10868,10 @@
         <v>125</v>
       </c>
       <c r="L392" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>4566</v>
       </c>
@@ -10873,10 +10894,10 @@
         <v>125</v>
       </c>
       <c r="L393" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>7051</v>
       </c>
@@ -10899,10 +10920,10 @@
         <v>73</v>
       </c>
       <c r="L394" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>4576</v>
       </c>
@@ -10925,10 +10946,10 @@
         <v>331</v>
       </c>
       <c r="L395" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>68</v>
       </c>
@@ -10945,10 +10966,10 @@
         <v>94</v>
       </c>
       <c r="L396" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>7420</v>
       </c>
@@ -10968,10 +10989,10 @@
         <v>331</v>
       </c>
       <c r="L397" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>8546</v>
       </c>
@@ -10991,10 +11012,10 @@
         <v>355</v>
       </c>
       <c r="L398" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>4664</v>
       </c>
@@ -11014,10 +11035,10 @@
         <v>355</v>
       </c>
       <c r="L399" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>4653</v>
       </c>
@@ -11040,10 +11061,10 @@
         <v>18</v>
       </c>
       <c r="L400" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>6705</v>
       </c>
@@ -11066,10 +11087,10 @@
         <v>26</v>
       </c>
       <c r="L401" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>4549</v>
       </c>
@@ -11092,10 +11113,10 @@
         <v>73</v>
       </c>
       <c r="L402" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>6635</v>
       </c>
@@ -11118,10 +11139,10 @@
         <v>342</v>
       </c>
       <c r="L403" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>55</v>
       </c>
@@ -11138,10 +11159,10 @@
         <v>355</v>
       </c>
       <c r="L404" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>4546</v>
       </c>
@@ -11161,10 +11182,10 @@
         <v>361</v>
       </c>
       <c r="L405" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>7553</v>
       </c>
@@ -11187,10 +11208,10 @@
         <v>33</v>
       </c>
       <c r="L406" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>8132</v>
       </c>
@@ -11213,10 +11234,10 @@
         <v>26</v>
       </c>
       <c r="L407" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>7803</v>
       </c>
@@ -11239,10 +11260,10 @@
         <v>44</v>
       </c>
       <c r="L408" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>7562</v>
       </c>
@@ -11262,10 +11283,10 @@
         <v>361</v>
       </c>
       <c r="L409" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>165</v>
       </c>
@@ -11282,10 +11303,10 @@
         <v>361</v>
       </c>
       <c r="L410" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>4986</v>
       </c>
@@ -11305,10 +11326,10 @@
         <v>366</v>
       </c>
       <c r="L411" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>293</v>
       </c>
@@ -11325,11 +11346,21 @@
         <v>366</v>
       </c>
       <c r="L412" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:M412" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P412" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="18aF"/>
+        <filter val="7aR"/>
+        <filter val="7aS"/>
+        <filter val="8aR"/>
+        <filter val="8aS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M412">
     <sortCondition ref="J2:J412"/>
   </sortState>
@@ -11347,51 +11378,51 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/ZG_nais_einheiten_unique_v2_mf_v2.xlsx
+++ b/ZG_nais_einheiten_unique_v2_mf_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C875B07-193B-4FEF-8885-85E5AAE3E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8576293B-B8AD-45D6-9698-546DEABC889C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9435" yWindow="3075" windowWidth="27900" windowHeight="10455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$412</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1640,8 +1640,8 @@
   <dimension ref="A1:P412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2798,7 +2798,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>9612</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7004</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9513</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>7901</v>
       </c>
@@ -3061,7 +3061,7 @@
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>9506</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>7003</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>9508</v>
       </c>
@@ -3493,7 +3493,7 @@
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>9495</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>9549</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>9498</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>9499</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>9556</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>9557</v>
       </c>
@@ -8271,7 +8271,7 @@
       <c r="O283" s="9"/>
       <c r="P283" s="9"/>
     </row>
-    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>9561</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>4556</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>4558</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>3</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>7201</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>7202</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>8967</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>7158</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>9507</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>8925</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>7420</v>
       </c>
@@ -11351,14 +11351,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P412" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="18aF"/>
-        <filter val="7aR"/>
-        <filter val="7aS"/>
-        <filter val="8aR"/>
-        <filter val="8aS"/>
-      </filters>
+    <filterColumn colId="12">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M412">
